--- a/Git桌面-不放大文件/汇报/实验记录.xlsx
+++ b/Git桌面-不放大文件/汇报/实验记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\Git桌面-不放大文件\汇报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE3F1D-ED8B-4025-9F69-43AB9EAD31DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF30C215-FA4F-43CD-9614-491E8B7F4CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作安排" sheetId="2" r:id="rId1"/>
@@ -3011,6 +3011,36 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3023,21 +3053,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,20 +3062,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3089,17 +3101,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3110,19 +3119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3137,6 +3137,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3149,16 +3155,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3167,16 +3170,22 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3185,23 +3194,32 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3236,59 +3254,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3874,58 +3874,58 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
     </row>
     <row r="3" spans="1:16" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197" t="s">
+      <c r="B3" s="201"/>
+      <c r="C3" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="198"/>
+      <c r="D3" s="202"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="201"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="198"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="207"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="198"/>
     </row>
     <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="200"/>
     </row>
     <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="55.2" x14ac:dyDescent="0.25">
@@ -3943,12 +3943,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="204"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
     </row>
     <row r="13" spans="1:16" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A13" s="155">
@@ -4231,46 +4231,51 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="196" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="201"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="198"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="205" t="s">
+      <c r="A34" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="207"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="195"/>
     </row>
     <row r="35" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="161" t="s">
         <v>269</v>
       </c>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="201" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="197"/>
-      <c r="D35" s="198"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="202"/>
     </row>
     <row r="36" spans="1:4" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="162" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="208" t="s">
+      <c r="B36" s="199" t="s">
         <v>270</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="209"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="200"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="B36:D36"/>
@@ -4278,11 +4283,6 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4321,68 +4321,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="214" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="210" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213" t="s">
+      <c r="E1" s="215"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="214"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="213" t="s">
+      <c r="H1" s="218"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="217" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="216" t="s">
+      <c r="K1" s="218"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="217"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="216" t="s">
+      <c r="N1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="220" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="218"/>
+      <c r="Q1" s="221"/>
+      <c r="R1" s="222"/>
       <c r="S1" s="16"/>
-      <c r="T1" s="219" t="s">
+      <c r="T1" s="213" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="219"/>
-      <c r="AG1" s="219"/>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="219"/>
-      <c r="AJ1" s="219"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="213"/>
+      <c r="AG1" s="213"/>
+      <c r="AH1" s="213"/>
+      <c r="AI1" s="213"/>
+      <c r="AJ1" s="213"/>
       <c r="AK1" s="29"/>
-      <c r="AL1" s="219" t="s">
+      <c r="AL1" s="213" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="219"/>
-      <c r="AN1" s="219"/>
-      <c r="AO1" s="219"/>
-      <c r="AP1" s="219"/>
-      <c r="AQ1" s="219"/>
-      <c r="AR1" s="219"/>
-      <c r="AS1" s="219"/>
-      <c r="AT1" s="219"/>
+      <c r="AM1" s="213"/>
+      <c r="AN1" s="213"/>
+      <c r="AO1" s="213"/>
+      <c r="AP1" s="213"/>
+      <c r="AQ1" s="213"/>
+      <c r="AR1" s="213"/>
+      <c r="AS1" s="213"/>
+      <c r="AT1" s="213"/>
     </row>
     <row r="2" spans="1:46" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -6636,25 +6636,25 @@
         <v>0.30975404086497599</v>
       </c>
       <c r="S21" s="8"/>
-      <c r="T21" s="220" t="s">
+      <c r="T21" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="U21" s="221"/>
-      <c r="V21" s="221"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="221"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="221"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="221"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="221"/>
-      <c r="AE21" s="221"/>
-      <c r="AF21" s="221"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="221"/>
-      <c r="AI21" s="221"/>
-      <c r="AJ21" s="222"/>
+      <c r="U21" s="211"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="211"/>
+      <c r="X21" s="211"/>
+      <c r="Y21" s="211"/>
+      <c r="Z21" s="211"/>
+      <c r="AA21" s="211"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
+      <c r="AD21" s="211"/>
+      <c r="AE21" s="211"/>
+      <c r="AF21" s="211"/>
+      <c r="AG21" s="211"/>
+      <c r="AH21" s="211"/>
+      <c r="AI21" s="211"/>
+      <c r="AJ21" s="212"/>
     </row>
     <row r="22" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -6983,25 +6983,25 @@
         <v>0.2351432263372</v>
       </c>
       <c r="S25" s="8"/>
-      <c r="T25" s="220" t="s">
+      <c r="T25" s="210" t="s">
         <v>189</v>
       </c>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="221"/>
-      <c r="AD25" s="221"/>
-      <c r="AE25" s="221"/>
-      <c r="AF25" s="221"/>
-      <c r="AG25" s="221"/>
-      <c r="AH25" s="221"/>
-      <c r="AI25" s="221"/>
-      <c r="AJ25" s="222"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="211"/>
+      <c r="Y25" s="211"/>
+      <c r="Z25" s="211"/>
+      <c r="AA25" s="211"/>
+      <c r="AB25" s="211"/>
+      <c r="AC25" s="211"/>
+      <c r="AD25" s="211"/>
+      <c r="AE25" s="211"/>
+      <c r="AF25" s="211"/>
+      <c r="AG25" s="211"/>
+      <c r="AH25" s="211"/>
+      <c r="AI25" s="211"/>
+      <c r="AJ25" s="212"/>
     </row>
     <row r="26" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
@@ -7330,25 +7330,25 @@
         <v>0.211073043548899</v>
       </c>
       <c r="S29" s="8"/>
-      <c r="T29" s="220" t="s">
+      <c r="T29" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="U29" s="221"/>
-      <c r="V29" s="221"/>
-      <c r="W29" s="221"/>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="221"/>
-      <c r="AC29" s="221"/>
-      <c r="AD29" s="221"/>
-      <c r="AE29" s="221"/>
-      <c r="AF29" s="221"/>
-      <c r="AG29" s="221"/>
-      <c r="AH29" s="221"/>
-      <c r="AI29" s="221"/>
-      <c r="AJ29" s="222"/>
+      <c r="U29" s="211"/>
+      <c r="V29" s="211"/>
+      <c r="W29" s="211"/>
+      <c r="X29" s="211"/>
+      <c r="Y29" s="211"/>
+      <c r="Z29" s="211"/>
+      <c r="AA29" s="211"/>
+      <c r="AB29" s="211"/>
+      <c r="AC29" s="211"/>
+      <c r="AD29" s="211"/>
+      <c r="AE29" s="211"/>
+      <c r="AF29" s="211"/>
+      <c r="AG29" s="211"/>
+      <c r="AH29" s="211"/>
+      <c r="AI29" s="211"/>
+      <c r="AJ29" s="212"/>
     </row>
     <row r="30" spans="1:36" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
@@ -72196,17 +72196,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
-    <mergeCell ref="T21:AJ21"/>
-    <mergeCell ref="T25:AJ25"/>
-    <mergeCell ref="T29:AJ29"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="T1:AJ1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="T21:AJ21"/>
+    <mergeCell ref="T25:AJ25"/>
+    <mergeCell ref="T29:AJ29"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T1:AJ18">
@@ -72253,30 +72253,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D1" s="223" t="s">
+      <c r="D1" s="226" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
       <c r="N1" s="231"/>
-      <c r="O1" s="224" t="s">
+      <c r="O1" s="227" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D2" s="147">
@@ -72434,7 +72434,7 @@
       <c r="AA4" s="169"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="226" t="s">
         <v>294</v>
       </c>
       <c r="B5" s="177">
@@ -72508,7 +72508,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="224"/>
+      <c r="A6" s="227"/>
       <c r="B6">
         <v>2</v>
       </c>
@@ -72580,7 +72580,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="224"/>
+      <c r="A7" s="227"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -72652,7 +72652,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="224"/>
+      <c r="A8" s="227"/>
       <c r="B8">
         <v>4</v>
       </c>
@@ -72724,7 +72724,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="224"/>
+      <c r="A9" s="227"/>
       <c r="B9">
         <v>5</v>
       </c>
@@ -72796,7 +72796,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="224"/>
+      <c r="A10" s="227"/>
       <c r="B10">
         <v>6</v>
       </c>
@@ -72868,7 +72868,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
+      <c r="A11" s="227"/>
       <c r="B11">
         <v>10</v>
       </c>
@@ -72940,7 +72940,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="224"/>
+      <c r="A12" s="227"/>
       <c r="B12">
         <v>12</v>
       </c>
@@ -73012,7 +73012,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
+      <c r="A13" s="227"/>
       <c r="B13">
         <v>16</v>
       </c>
@@ -73084,7 +73084,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
+      <c r="A14" s="227"/>
       <c r="B14">
         <v>8</v>
       </c>
@@ -73156,7 +73156,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="225"/>
+      <c r="A15" s="228"/>
       <c r="B15" s="87">
         <v>14</v>
       </c>
@@ -73228,7 +73228,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="227" t="s">
+      <c r="A16" s="229" t="s">
         <v>295</v>
       </c>
       <c r="B16">
@@ -73302,7 +73302,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="227"/>
+      <c r="A17" s="229"/>
       <c r="B17">
         <v>9</v>
       </c>
@@ -73374,7 +73374,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="227"/>
+      <c r="A18" s="229"/>
       <c r="B18">
         <v>11</v>
       </c>
@@ -73446,7 +73446,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="227"/>
+      <c r="A19" s="229"/>
       <c r="B19">
         <v>13</v>
       </c>
@@ -73518,7 +73518,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="227"/>
+      <c r="A20" s="229"/>
       <c r="B20">
         <v>15</v>
       </c>
@@ -73590,7 +73590,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="227"/>
+      <c r="A21" s="229"/>
       <c r="B21">
         <v>17</v>
       </c>
@@ -73662,7 +73662,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="227"/>
+      <c r="A22" s="229"/>
       <c r="B22">
         <v>18</v>
       </c>
@@ -73734,7 +73734,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="227"/>
+      <c r="A23" s="229"/>
       <c r="B23">
         <v>19</v>
       </c>
@@ -73806,7 +73806,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="227"/>
+      <c r="A24" s="229"/>
       <c r="B24">
         <v>20</v>
       </c>
@@ -73947,30 +73947,30 @@
     </row>
     <row r="27" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:24" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="C28" s="228" t="s">
+      <c r="C28" s="223" t="s">
         <v>291</v>
       </c>
-      <c r="D28" s="229"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="229"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="229"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="229"/>
-      <c r="S28" s="229"/>
-      <c r="T28" s="229"/>
-      <c r="U28" s="229"/>
-      <c r="V28" s="229"/>
-      <c r="W28" s="229"/>
-      <c r="X28" s="230"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="224"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="224"/>
+      <c r="P28" s="224"/>
+      <c r="Q28" s="224"/>
+      <c r="R28" s="224"/>
+      <c r="S28" s="224"/>
+      <c r="T28" s="224"/>
+      <c r="U28" s="224"/>
+      <c r="V28" s="224"/>
+      <c r="W28" s="224"/>
+      <c r="X28" s="225"/>
     </row>
     <row r="29" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="171"/>
@@ -74039,7 +74039,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="223" t="s">
+      <c r="A30" s="226" t="s">
         <v>294</v>
       </c>
       <c r="B30" s="177">
@@ -74113,7 +74113,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="224"/>
+      <c r="A31" s="227"/>
       <c r="B31">
         <v>2</v>
       </c>
@@ -74185,7 +74185,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="224"/>
+      <c r="A32" s="227"/>
       <c r="B32">
         <v>3</v>
       </c>
@@ -74257,7 +74257,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
+      <c r="A33" s="227"/>
       <c r="B33">
         <v>4</v>
       </c>
@@ -74329,7 +74329,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="224"/>
+      <c r="A34" s="227"/>
       <c r="B34">
         <v>5</v>
       </c>
@@ -74401,7 +74401,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="224"/>
+      <c r="A35" s="227"/>
       <c r="B35">
         <v>6</v>
       </c>
@@ -74473,7 +74473,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="224"/>
+      <c r="A36" s="227"/>
       <c r="B36">
         <v>10</v>
       </c>
@@ -74545,7 +74545,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="224"/>
+      <c r="A37" s="227"/>
       <c r="B37">
         <v>12</v>
       </c>
@@ -74617,7 +74617,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="224"/>
+      <c r="A38" s="227"/>
       <c r="B38">
         <v>16</v>
       </c>
@@ -74689,7 +74689,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
+      <c r="A39" s="227"/>
       <c r="B39">
         <v>8</v>
       </c>
@@ -74761,7 +74761,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="225"/>
+      <c r="A40" s="228"/>
       <c r="B40" s="87">
         <v>14</v>
       </c>
@@ -74833,7 +74833,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="226" t="s">
+      <c r="A41" s="230" t="s">
         <v>295</v>
       </c>
       <c r="B41">
@@ -74907,7 +74907,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="227"/>
+      <c r="A42" s="229"/>
       <c r="B42">
         <v>9</v>
       </c>
@@ -74979,7 +74979,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="227"/>
+      <c r="A43" s="229"/>
       <c r="B43">
         <v>11</v>
       </c>
@@ -75051,7 +75051,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="227"/>
+      <c r="A44" s="229"/>
       <c r="B44">
         <v>13</v>
       </c>
@@ -75123,7 +75123,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="227"/>
+      <c r="A45" s="229"/>
       <c r="B45">
         <v>15</v>
       </c>
@@ -75195,7 +75195,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="227"/>
+      <c r="A46" s="229"/>
       <c r="B46">
         <v>17</v>
       </c>
@@ -75267,7 +75267,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="227"/>
+      <c r="A47" s="229"/>
       <c r="B47">
         <v>18</v>
       </c>
@@ -75339,7 +75339,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="227"/>
+      <c r="A48" s="229"/>
       <c r="B48">
         <v>19</v>
       </c>
@@ -75411,7 +75411,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="227"/>
+      <c r="A49" s="229"/>
       <c r="B49">
         <v>20</v>
       </c>
@@ -75552,30 +75552,30 @@
     </row>
     <row r="52" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:24" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="C53" s="228" t="s">
+      <c r="C53" s="223" t="s">
         <v>292</v>
       </c>
-      <c r="D53" s="229"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="229"/>
-      <c r="G53" s="229"/>
-      <c r="H53" s="229"/>
-      <c r="I53" s="229"/>
-      <c r="J53" s="229"/>
-      <c r="K53" s="229"/>
-      <c r="L53" s="229"/>
-      <c r="M53" s="229"/>
-      <c r="N53" s="229"/>
-      <c r="O53" s="229"/>
-      <c r="P53" s="229"/>
-      <c r="Q53" s="229"/>
-      <c r="R53" s="229"/>
-      <c r="S53" s="229"/>
-      <c r="T53" s="229"/>
-      <c r="U53" s="229"/>
-      <c r="V53" s="229"/>
-      <c r="W53" s="229"/>
-      <c r="X53" s="230"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="224"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="224"/>
+      <c r="H53" s="224"/>
+      <c r="I53" s="224"/>
+      <c r="J53" s="224"/>
+      <c r="K53" s="224"/>
+      <c r="L53" s="224"/>
+      <c r="M53" s="224"/>
+      <c r="N53" s="224"/>
+      <c r="O53" s="224"/>
+      <c r="P53" s="224"/>
+      <c r="Q53" s="224"/>
+      <c r="R53" s="224"/>
+      <c r="S53" s="224"/>
+      <c r="T53" s="224"/>
+      <c r="U53" s="224"/>
+      <c r="V53" s="224"/>
+      <c r="W53" s="224"/>
+      <c r="X53" s="225"/>
     </row>
     <row r="54" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="171"/>
@@ -75644,7 +75644,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="223" t="s">
+      <c r="A55" s="226" t="s">
         <v>294</v>
       </c>
       <c r="B55" s="177">
@@ -75718,7 +75718,7 @@
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="224"/>
+      <c r="A56" s="227"/>
       <c r="B56">
         <v>2</v>
       </c>
@@ -75790,7 +75790,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="224"/>
+      <c r="A57" s="227"/>
       <c r="B57">
         <v>3</v>
       </c>
@@ -75862,7 +75862,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="224"/>
+      <c r="A58" s="227"/>
       <c r="B58">
         <v>4</v>
       </c>
@@ -75934,7 +75934,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="224"/>
+      <c r="A59" s="227"/>
       <c r="B59">
         <v>5</v>
       </c>
@@ -76006,7 +76006,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="224"/>
+      <c r="A60" s="227"/>
       <c r="B60">
         <v>6</v>
       </c>
@@ -76078,7 +76078,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="224"/>
+      <c r="A61" s="227"/>
       <c r="B61">
         <v>10</v>
       </c>
@@ -76150,7 +76150,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="224"/>
+      <c r="A62" s="227"/>
       <c r="B62">
         <v>12</v>
       </c>
@@ -76222,7 +76222,7 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="224"/>
+      <c r="A63" s="227"/>
       <c r="B63">
         <v>16</v>
       </c>
@@ -76294,7 +76294,7 @@
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="224"/>
+      <c r="A64" s="227"/>
       <c r="B64">
         <v>8</v>
       </c>
@@ -76366,7 +76366,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="225"/>
+      <c r="A65" s="228"/>
       <c r="B65" s="87">
         <v>14</v>
       </c>
@@ -76438,7 +76438,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="227" t="s">
+      <c r="A66" s="229" t="s">
         <v>295</v>
       </c>
       <c r="B66">
@@ -76512,7 +76512,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="227"/>
+      <c r="A67" s="229"/>
       <c r="B67">
         <v>9</v>
       </c>
@@ -76584,7 +76584,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="227"/>
+      <c r="A68" s="229"/>
       <c r="B68">
         <v>11</v>
       </c>
@@ -76656,7 +76656,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="227"/>
+      <c r="A69" s="229"/>
       <c r="B69">
         <v>13</v>
       </c>
@@ -76728,7 +76728,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="227"/>
+      <c r="A70" s="229"/>
       <c r="B70">
         <v>15</v>
       </c>
@@ -76800,7 +76800,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="227"/>
+      <c r="A71" s="229"/>
       <c r="B71">
         <v>17</v>
       </c>
@@ -76872,7 +76872,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="227"/>
+      <c r="A72" s="229"/>
       <c r="B72">
         <v>18</v>
       </c>
@@ -76944,7 +76944,7 @@
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="227"/>
+      <c r="A73" s="229"/>
       <c r="B73">
         <v>19</v>
       </c>
@@ -77016,7 +77016,7 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="227"/>
+      <c r="A74" s="229"/>
       <c r="B74">
         <v>20</v>
       </c>
@@ -77157,17 +77157,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="C53:X53"/>
+    <mergeCell ref="A55:A65"/>
+    <mergeCell ref="A66:A74"/>
     <mergeCell ref="C28:X28"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="A16:A24"/>
     <mergeCell ref="D1:N1"/>
     <mergeCell ref="C3:X3"/>
     <mergeCell ref="O1:W1"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="C53:X53"/>
-    <mergeCell ref="A55:A65"/>
-    <mergeCell ref="A66:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D6:X24">
@@ -77189,8 +77189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ED6CE9-5CBF-4A9A-8EF8-C712C16A3582}">
   <dimension ref="A1:Q243"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -77206,62 +77206,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="267"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="206"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
     </row>
     <row r="2" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="271" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="273"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="254" t="s">
+      <c r="A3" s="274" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="268" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="262" t="s">
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="268" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="264"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="260"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="270"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="266"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="255"/>
+      <c r="A4" s="275"/>
       <c r="B4" s="101" t="s">
         <v>176</v>
       </c>
@@ -77286,25 +77286,25 @@
       <c r="I4" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="267"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="279" t="s">
+      <c r="A5" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="278">
+      <c r="B5" s="243">
         <v>0.2</v>
       </c>
       <c r="C5" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="251" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="79">
@@ -77325,13 +77325,13 @@
       <c r="N5" s="105"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="279"/>
-      <c r="B6" s="243"/>
+      <c r="A6" s="246"/>
+      <c r="B6" s="244"/>
       <c r="C6" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="274"/>
-      <c r="E6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="252"/>
       <c r="F6" s="74">
         <v>0.40039999999999998</v>
       </c>
@@ -77350,13 +77350,13 @@
       <c r="N6" s="105"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="279"/>
-      <c r="B7" s="243"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="274"/>
-      <c r="E7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="252"/>
       <c r="F7" s="74">
         <v>0.44700000000000001</v>
       </c>
@@ -77369,19 +77369,19 @@
       <c r="I7" s="75">
         <v>0.63700000000000001</v>
       </c>
-      <c r="K7" s="268"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="268"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="276"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="279"/>
-      <c r="B8" s="243"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="274"/>
-      <c r="E8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="252"/>
       <c r="F8" s="74">
         <v>0.40860000000000002</v>
       </c>
@@ -77400,13 +77400,13 @@
       <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="280"/>
-      <c r="B9" s="244"/>
+      <c r="A9" s="247"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="253"/>
       <c r="F9" s="76">
         <v>0.34499999999999997</v>
       </c>
@@ -77425,19 +77425,19 @@
       <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="270" t="s">
+      <c r="A10" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="242">
+      <c r="B10" s="259">
         <v>0.2</v>
       </c>
       <c r="C10" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="273" t="s">
+      <c r="D10" s="260" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="248" t="s">
+      <c r="E10" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F10" s="74">
@@ -77458,13 +77458,13 @@
       <c r="N10" s="83"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="271"/>
-      <c r="B11" s="243"/>
+      <c r="A11" s="257"/>
+      <c r="B11" s="244"/>
       <c r="C11" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="252"/>
       <c r="F11" s="74">
         <v>0.42649999999999999</v>
       </c>
@@ -77483,13 +77483,13 @@
       <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="271"/>
-      <c r="B12" s="243"/>
+      <c r="A12" s="257"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="274"/>
-      <c r="E12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="252"/>
       <c r="F12" s="74">
         <v>0.38319999999999999</v>
       </c>
@@ -77503,22 +77503,22 @@
         <v>0.82079999999999997</v>
       </c>
       <c r="J12" s="69"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="269"/>
-      <c r="N12" s="269"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="277"/>
+      <c r="N12" s="277"/>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
       <c r="Q12" s="69"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="271"/>
-      <c r="B13" s="243"/>
+      <c r="A13" s="257"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="274"/>
-      <c r="E13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="252"/>
       <c r="F13" s="74">
         <v>0.28210000000000002</v>
       </c>
@@ -77541,13 +77541,13 @@
       <c r="Q13" s="69"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="271"/>
-      <c r="B14" s="243"/>
+      <c r="A14" s="257"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="274"/>
-      <c r="E14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="252"/>
       <c r="F14" s="136">
         <v>0.25180000000000002</v>
       </c>
@@ -77570,13 +77570,13 @@
       <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="272"/>
-      <c r="B15" s="244"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="275"/>
-      <c r="E15" s="250"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="253"/>
       <c r="F15" s="111">
         <v>0.3876</v>
       </c>
@@ -77605,11 +77605,11 @@
       <c r="B16" s="72">
         <v>0.2</v>
       </c>
-      <c r="C16" s="283" t="s">
+      <c r="C16" s="254" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="283"/>
-      <c r="E16" s="284"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="255"/>
       <c r="F16" s="76">
         <v>0.5857</v>
       </c>
@@ -77628,15 +77628,15 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="257"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="259"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="264"/>
+      <c r="I17" s="265"/>
       <c r="J17" s="3"/>
       <c r="L17" t="s">
         <v>215</v>
@@ -77646,19 +77646,19 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="285" t="s">
+      <c r="A18" s="262" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="278">
+      <c r="B18" s="243">
         <v>0.5</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="281" t="s">
+      <c r="D18" s="248" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="282" t="s">
+      <c r="E18" s="251" t="s">
         <v>167</v>
       </c>
       <c r="F18" s="79">
@@ -77682,13 +77682,13 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="279"/>
-      <c r="B19" s="243"/>
+      <c r="A19" s="246"/>
+      <c r="B19" s="244"/>
       <c r="C19" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="274"/>
-      <c r="E19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="252"/>
       <c r="F19" s="74">
         <v>0.47910000000000003</v>
       </c>
@@ -77710,13 +77710,13 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="279"/>
-      <c r="B20" s="243"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="244"/>
       <c r="C20" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="274"/>
-      <c r="E20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="252"/>
       <c r="F20" s="74">
         <v>0.4587</v>
       </c>
@@ -77739,13 +77739,13 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="279"/>
-      <c r="B21" s="243"/>
+      <c r="A21" s="246"/>
+      <c r="B21" s="244"/>
       <c r="C21" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="252"/>
       <c r="F21" s="74">
         <v>0.37369999999999998</v>
       </c>
@@ -77768,13 +77768,13 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="280"/>
-      <c r="B22" s="244"/>
+      <c r="A22" s="247"/>
+      <c r="B22" s="245"/>
       <c r="C22" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="275"/>
-      <c r="E22" s="250"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="253"/>
       <c r="F22" s="94">
         <v>0.38540000000000002</v>
       </c>
@@ -77797,19 +77797,19 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="270" t="s">
+      <c r="A23" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="242">
+      <c r="B23" s="259">
         <v>0.5</v>
       </c>
       <c r="C23" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="273" t="s">
+      <c r="D23" s="260" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F23" s="98">
@@ -77834,13 +77834,13 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="271"/>
-      <c r="B24" s="243"/>
+      <c r="A24" s="257"/>
+      <c r="B24" s="244"/>
       <c r="C24" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="252"/>
       <c r="F24" s="74">
         <v>0.46510000000000001</v>
       </c>
@@ -77863,13 +77863,13 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="271"/>
-      <c r="B25" s="243"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="244"/>
       <c r="C25" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="274"/>
-      <c r="E25" s="249"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="252"/>
       <c r="F25" s="74">
         <v>0.43169999999999997</v>
       </c>
@@ -77892,13 +77892,13 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="271"/>
-      <c r="B26" s="243"/>
+      <c r="A26" s="257"/>
+      <c r="B26" s="244"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="274"/>
-      <c r="E26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="252"/>
       <c r="F26" s="74">
         <v>0.33779999999999999</v>
       </c>
@@ -77921,13 +77921,13 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="271"/>
-      <c r="B27" s="243"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="252"/>
       <c r="F27" s="136">
         <v>0.30080000000000001</v>
       </c>
@@ -77952,13 +77952,13 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="272"/>
-      <c r="B28" s="244"/>
+      <c r="A28" s="258"/>
+      <c r="B28" s="245"/>
       <c r="C28" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="275"/>
-      <c r="E28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="253"/>
       <c r="F28" s="94">
         <v>0.35210000000000002</v>
       </c>
@@ -77989,11 +77989,11 @@
       <c r="B29" s="72">
         <v>0.5</v>
       </c>
-      <c r="C29" s="283" t="s">
+      <c r="C29" s="254" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="283"/>
-      <c r="E29" s="284"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="255"/>
       <c r="F29" s="82">
         <v>0.59630000000000005</v>
       </c>
@@ -78016,15 +78016,15 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="235"/>
-      <c r="B30" s="236"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="237"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="239"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -78035,15 +78035,15 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="238"/>
-      <c r="B31" s="240"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="241"/>
+      <c r="A31" s="240"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="242"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -78054,7 +78054,7 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="254" t="s">
+      <c r="A32" s="274" t="s">
         <v>203</v>
       </c>
       <c r="B32" s="101" t="s">
@@ -78091,15 +78091,15 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="255"/>
-      <c r="B33" s="242">
+      <c r="A33" s="275"/>
+      <c r="B33" s="259">
         <v>0.2</v>
       </c>
       <c r="C33" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="245"/>
-      <c r="E33" s="248" t="s">
+      <c r="D33" s="279"/>
+      <c r="E33" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F33" s="98">
@@ -78126,13 +78126,13 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="255"/>
-      <c r="B34" s="243"/>
+      <c r="A34" s="275"/>
+      <c r="B34" s="244"/>
       <c r="C34" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="246"/>
-      <c r="E34" s="249"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="252"/>
       <c r="F34" s="74">
         <v>0.37090000000000001</v>
       </c>
@@ -78155,13 +78155,13 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="255"/>
-      <c r="B35" s="243"/>
+      <c r="A35" s="275"/>
+      <c r="B35" s="244"/>
       <c r="C35" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="246"/>
-      <c r="E35" s="249"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="252"/>
       <c r="F35" s="74">
         <v>0.31419999999999998</v>
       </c>
@@ -78184,13 +78184,13 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="255"/>
-      <c r="B36" s="243"/>
+      <c r="A36" s="275"/>
+      <c r="B36" s="244"/>
       <c r="C36" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="246"/>
-      <c r="E36" s="249"/>
+      <c r="D36" s="280"/>
+      <c r="E36" s="252"/>
       <c r="F36" s="74">
         <v>0.2782</v>
       </c>
@@ -78215,13 +78215,13 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="255"/>
-      <c r="B37" s="243"/>
+      <c r="A37" s="275"/>
+      <c r="B37" s="244"/>
       <c r="C37" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="246"/>
-      <c r="E37" s="249"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="252"/>
       <c r="F37" s="136">
         <v>0.20569999999999999</v>
       </c>
@@ -78244,13 +78244,13 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="255"/>
-      <c r="B38" s="244"/>
+      <c r="A38" s="275"/>
+      <c r="B38" s="245"/>
       <c r="C38" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="247"/>
-      <c r="E38" s="250"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="253"/>
       <c r="F38" s="94">
         <v>0.2369</v>
       </c>
@@ -78273,15 +78273,15 @@
       <c r="Q38" s="70"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="255"/>
-      <c r="B39" s="242">
+      <c r="A39" s="275"/>
+      <c r="B39" s="259">
         <v>0.5</v>
       </c>
       <c r="C39" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="245"/>
-      <c r="E39" s="248" t="s">
+      <c r="D39" s="279"/>
+      <c r="E39" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F39" s="98">
@@ -78301,13 +78301,13 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="255"/>
-      <c r="B40" s="243"/>
+      <c r="A40" s="275"/>
+      <c r="B40" s="244"/>
       <c r="C40" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="246"/>
-      <c r="E40" s="249"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="252"/>
       <c r="F40" s="74">
         <v>0.3427</v>
       </c>
@@ -78325,13 +78325,13 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="255"/>
-      <c r="B41" s="243"/>
+      <c r="A41" s="275"/>
+      <c r="B41" s="244"/>
       <c r="C41" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="249"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="252"/>
       <c r="F41" s="74">
         <v>0.33279999999999998</v>
       </c>
@@ -78349,13 +78349,13 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="255"/>
-      <c r="B42" s="243"/>
+      <c r="A42" s="275"/>
+      <c r="B42" s="244"/>
       <c r="C42" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="246"/>
-      <c r="E42" s="249"/>
+      <c r="D42" s="280"/>
+      <c r="E42" s="252"/>
       <c r="F42" s="74">
         <v>0.31390000000000001</v>
       </c>
@@ -78370,13 +78370,13 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
-      <c r="B43" s="243"/>
+      <c r="A43" s="275"/>
+      <c r="B43" s="244"/>
       <c r="C43" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="246"/>
-      <c r="E43" s="249"/>
+      <c r="D43" s="280"/>
+      <c r="E43" s="252"/>
       <c r="F43" s="136">
         <v>0.2087</v>
       </c>
@@ -78394,13 +78394,13 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="256"/>
-      <c r="B44" s="251"/>
+      <c r="A44" s="285"/>
+      <c r="B44" s="282"/>
       <c r="C44" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="252"/>
-      <c r="E44" s="253"/>
+      <c r="D44" s="283"/>
+      <c r="E44" s="284"/>
       <c r="F44" s="76">
         <v>0.2258</v>
       </c>
@@ -78415,29 +78415,29 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="235"/>
-      <c r="B45" s="236"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="237"/>
+      <c r="A45" s="237"/>
+      <c r="B45" s="238"/>
+      <c r="C45" s="238"/>
+      <c r="D45" s="238"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="238"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="238"/>
+      <c r="I45" s="239"/>
     </row>
     <row r="46" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="238"/>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="240"/>
-      <c r="H46" s="240"/>
-      <c r="I46" s="241"/>
+      <c r="A46" s="240"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="278"/>
+      <c r="D46" s="278"/>
+      <c r="E46" s="278"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="241"/>
+      <c r="I46" s="242"/>
     </row>
     <row r="47" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="276"/>
+      <c r="A47" s="235"/>
       <c r="B47" s="101">
         <v>0.2</v>
       </c>
@@ -78464,7 +78464,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="277"/>
+      <c r="A48" s="236"/>
       <c r="B48" s="72">
         <v>0.5</v>
       </c>
@@ -79085,6 +79085,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A45:I46"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="D10:D15"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A30:I31"/>
     <mergeCell ref="B5:B9"/>
@@ -79101,29 +79124,6 @@
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="A45:I46"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="A32:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -79135,7 +79135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076702C3-F294-4E43-ACCA-659A3A152188}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -79148,50 +79148,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="271" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="267"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="271" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="273"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="254" t="s">
+      <c r="A3" s="274" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="268" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="262" t="s">
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="268" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="264"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="270"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="255"/>
+      <c r="A4" s="275"/>
       <c r="B4" s="101" t="s">
         <v>176</v>
       </c>
@@ -79218,19 +79218,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="279" t="s">
+      <c r="A5" s="246" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="278">
+      <c r="B5" s="243">
         <v>0.2</v>
       </c>
       <c r="C5" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="281" t="s">
+      <c r="D5" s="248" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="E5" s="251" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="79">
@@ -79241,13 +79241,13 @@
       <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="279"/>
-      <c r="B6" s="243"/>
+      <c r="A6" s="246"/>
+      <c r="B6" s="244"/>
       <c r="C6" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="274"/>
-      <c r="E6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="252"/>
       <c r="F6" s="74">
         <v>0.4617</v>
       </c>
@@ -79256,13 +79256,13 @@
       <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="279"/>
-      <c r="B7" s="243"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="274"/>
-      <c r="E7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="252"/>
       <c r="F7" s="74">
         <v>0.43099999999999999</v>
       </c>
@@ -79271,13 +79271,13 @@
       <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="279"/>
-      <c r="B8" s="243"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="274"/>
-      <c r="E8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="252"/>
       <c r="F8" s="74">
         <v>0.37919999999999998</v>
       </c>
@@ -79286,13 +79286,13 @@
       <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="280"/>
-      <c r="B9" s="244"/>
+      <c r="A9" s="247"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="253"/>
       <c r="F9" s="76">
         <v>0.41839999999999999</v>
       </c>
@@ -79301,19 +79301,19 @@
       <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="270" t="s">
+      <c r="A10" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="242">
+      <c r="B10" s="259">
         <v>0.2</v>
       </c>
       <c r="C10" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="273" t="s">
+      <c r="D10" s="260" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="248" t="s">
+      <c r="E10" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F10" s="74">
@@ -79324,13 +79324,13 @@
       <c r="I10" s="75"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="271"/>
-      <c r="B11" s="243"/>
+      <c r="A11" s="257"/>
+      <c r="B11" s="244"/>
       <c r="C11" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="252"/>
       <c r="F11" s="74">
         <v>0.50149999999999995</v>
       </c>
@@ -79339,13 +79339,13 @@
       <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="271"/>
-      <c r="B12" s="243"/>
+      <c r="A12" s="257"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="274"/>
-      <c r="E12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="252"/>
       <c r="F12" s="74">
         <v>0.497</v>
       </c>
@@ -79354,13 +79354,13 @@
       <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="271"/>
-      <c r="B13" s="243"/>
+      <c r="A13" s="257"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="274"/>
-      <c r="E13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="252"/>
       <c r="F13" s="136">
         <v>0.39829999999999999</v>
       </c>
@@ -79369,13 +79369,13 @@
       <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="271"/>
-      <c r="B14" s="243"/>
+      <c r="A14" s="257"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="274"/>
-      <c r="E14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="252"/>
       <c r="F14" s="189">
         <v>0.49940000000000001</v>
       </c>
@@ -79384,13 +79384,13 @@
       <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="272"/>
-      <c r="B15" s="244"/>
+      <c r="A15" s="258"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="275"/>
-      <c r="E15" s="250"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="253"/>
       <c r="F15" s="111">
         <v>0.4773</v>
       </c>
@@ -79405,11 +79405,11 @@
       <c r="B16" s="72">
         <v>0.2</v>
       </c>
-      <c r="C16" s="283" t="s">
+      <c r="C16" s="254" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="283"/>
-      <c r="E16" s="284"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="255"/>
       <c r="F16" s="76">
         <v>0.58730000000000004</v>
       </c>
@@ -79424,30 +79424,30 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="257"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="259"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="264"/>
+      <c r="I17" s="265"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="285" t="s">
+      <c r="A18" s="262" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="278">
+      <c r="B18" s="243">
         <v>0.5</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="281" t="s">
+      <c r="D18" s="248" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="282" t="s">
+      <c r="E18" s="251" t="s">
         <v>167</v>
       </c>
       <c r="F18" s="79">
@@ -79458,13 +79458,13 @@
       <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="279"/>
-      <c r="B19" s="243"/>
+      <c r="A19" s="246"/>
+      <c r="B19" s="244"/>
       <c r="C19" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="274"/>
-      <c r="E19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="252"/>
       <c r="F19" s="74">
         <v>0.50960000000000005</v>
       </c>
@@ -79473,13 +79473,13 @@
       <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="279"/>
-      <c r="B20" s="243"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="244"/>
       <c r="C20" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="274"/>
-      <c r="E20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="252"/>
       <c r="F20" s="74">
         <v>0.46929999999999999</v>
       </c>
@@ -79488,13 +79488,13 @@
       <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="279"/>
-      <c r="B21" s="243"/>
+      <c r="A21" s="246"/>
+      <c r="B21" s="244"/>
       <c r="C21" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="252"/>
       <c r="F21" s="74">
         <v>0.47570000000000001</v>
       </c>
@@ -79503,13 +79503,13 @@
       <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="280"/>
-      <c r="B22" s="244"/>
+      <c r="A22" s="247"/>
+      <c r="B22" s="245"/>
       <c r="C22" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="275"/>
-      <c r="E22" s="250"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="253"/>
       <c r="F22" s="94">
         <v>0.46899999999999997</v>
       </c>
@@ -79518,19 +79518,19 @@
       <c r="I22" s="96"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="270" t="s">
+      <c r="A23" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="242">
+      <c r="B23" s="259">
         <v>0.5</v>
       </c>
       <c r="C23" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="273" t="s">
+      <c r="D23" s="260" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F23" s="98">
@@ -79541,13 +79541,13 @@
       <c r="I23" s="100"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="271"/>
-      <c r="B24" s="243"/>
+      <c r="A24" s="257"/>
+      <c r="B24" s="244"/>
       <c r="C24" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="252"/>
       <c r="F24" s="74">
         <v>0.51770000000000005</v>
       </c>
@@ -79556,13 +79556,13 @@
       <c r="I24" s="75"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="271"/>
-      <c r="B25" s="243"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="244"/>
       <c r="C25" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="274"/>
-      <c r="E25" s="249"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="252"/>
       <c r="F25" s="74">
         <v>0.51600000000000001</v>
       </c>
@@ -79571,13 +79571,13 @@
       <c r="I25" s="75"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="271"/>
-      <c r="B26" s="243"/>
+      <c r="A26" s="257"/>
+      <c r="B26" s="244"/>
       <c r="C26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="274"/>
-      <c r="E26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="252"/>
       <c r="F26" s="136">
         <v>0.39800000000000002</v>
       </c>
@@ -79586,13 +79586,13 @@
       <c r="I26" s="75"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="271"/>
-      <c r="B27" s="243"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="244"/>
       <c r="C27" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="274"/>
-      <c r="E27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="252"/>
       <c r="F27" s="189">
         <v>0.49380000000000002</v>
       </c>
@@ -79601,13 +79601,13 @@
       <c r="I27" s="75"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="272"/>
-      <c r="B28" s="244"/>
+      <c r="A28" s="258"/>
+      <c r="B28" s="245"/>
       <c r="C28" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="275"/>
-      <c r="E28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="253"/>
       <c r="F28" s="94">
         <v>0.55130000000000001</v>
       </c>
@@ -79622,11 +79622,11 @@
       <c r="B29" s="72">
         <v>0.5</v>
       </c>
-      <c r="C29" s="283" t="s">
+      <c r="C29" s="254" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="283"/>
-      <c r="E29" s="284"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="255"/>
       <c r="F29" s="82">
         <v>0.57220000000000004</v>
       </c>
@@ -79641,29 +79641,29 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="235"/>
-      <c r="B30" s="236"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="237"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="239"/>
     </row>
     <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="238"/>
-      <c r="B31" s="240"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="241"/>
+      <c r="A31" s="240"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="242"/>
     </row>
     <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="254" t="s">
+      <c r="A32" s="274" t="s">
         <v>203</v>
       </c>
       <c r="B32" s="101" t="s">
@@ -79692,15 +79692,15 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="255"/>
-      <c r="B33" s="242">
+      <c r="A33" s="275"/>
+      <c r="B33" s="259">
         <v>0.2</v>
       </c>
       <c r="C33" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="245"/>
-      <c r="E33" s="248" t="s">
+      <c r="D33" s="279"/>
+      <c r="E33" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F33" s="98">
@@ -79711,13 +79711,13 @@
       <c r="I33" s="100"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="255"/>
-      <c r="B34" s="243"/>
+      <c r="A34" s="275"/>
+      <c r="B34" s="244"/>
       <c r="C34" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="246"/>
-      <c r="E34" s="249"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="252"/>
       <c r="F34" s="74">
         <v>0.49270000000000003</v>
       </c>
@@ -79726,13 +79726,13 @@
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="255"/>
-      <c r="B35" s="243"/>
+      <c r="A35" s="275"/>
+      <c r="B35" s="244"/>
       <c r="C35" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="246"/>
-      <c r="E35" s="249"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="252"/>
       <c r="F35" s="74">
         <v>0.45550000000000002</v>
       </c>
@@ -79741,13 +79741,13 @@
       <c r="I35" s="75"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="255"/>
-      <c r="B36" s="243"/>
+      <c r="A36" s="275"/>
+      <c r="B36" s="244"/>
       <c r="C36" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="246"/>
-      <c r="E36" s="249"/>
+      <c r="D36" s="280"/>
+      <c r="E36" s="252"/>
       <c r="F36" s="136">
         <v>0.39419999999999999</v>
       </c>
@@ -79756,13 +79756,13 @@
       <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="255"/>
-      <c r="B37" s="243"/>
+      <c r="A37" s="275"/>
+      <c r="B37" s="244"/>
       <c r="C37" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="246"/>
-      <c r="E37" s="249"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="252"/>
       <c r="F37" s="189">
         <v>0.47960000000000003</v>
       </c>
@@ -79771,13 +79771,13 @@
       <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="255"/>
-      <c r="B38" s="244"/>
+      <c r="A38" s="275"/>
+      <c r="B38" s="245"/>
       <c r="C38" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="247"/>
-      <c r="E38" s="250"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="253"/>
       <c r="F38" s="94">
         <v>0.48230000000000001</v>
       </c>
@@ -79786,15 +79786,15 @@
       <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="255"/>
-      <c r="B39" s="242">
+      <c r="A39" s="275"/>
+      <c r="B39" s="259">
         <v>0.5</v>
       </c>
       <c r="C39" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="245"/>
-      <c r="E39" s="248" t="s">
+      <c r="D39" s="279"/>
+      <c r="E39" s="261" t="s">
         <v>167</v>
       </c>
       <c r="F39" s="98"/>
@@ -79803,94 +79803,94 @@
       <c r="I39" s="100"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="255"/>
-      <c r="B40" s="243"/>
+      <c r="A40" s="275"/>
+      <c r="B40" s="244"/>
       <c r="C40" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="246"/>
-      <c r="E40" s="249"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="252"/>
       <c r="F40" s="74"/>
       <c r="G40" s="108"/>
       <c r="H40" s="108"/>
       <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="255"/>
-      <c r="B41" s="243"/>
+      <c r="A41" s="275"/>
+      <c r="B41" s="244"/>
       <c r="C41" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="249"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="252"/>
       <c r="F41" s="74"/>
       <c r="G41" s="108"/>
       <c r="H41" s="108"/>
       <c r="I41" s="75"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="255"/>
-      <c r="B42" s="243"/>
+      <c r="A42" s="275"/>
+      <c r="B42" s="244"/>
       <c r="C42" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="246"/>
-      <c r="E42" s="249"/>
+      <c r="D42" s="280"/>
+      <c r="E42" s="252"/>
       <c r="F42" s="74"/>
       <c r="G42" s="108"/>
       <c r="H42" s="108"/>
       <c r="I42" s="75"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
-      <c r="B43" s="243"/>
+      <c r="A43" s="275"/>
+      <c r="B43" s="244"/>
       <c r="C43" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="246"/>
-      <c r="E43" s="249"/>
+      <c r="D43" s="280"/>
+      <c r="E43" s="252"/>
       <c r="F43" s="136"/>
       <c r="G43" s="108"/>
       <c r="H43" s="108"/>
       <c r="I43" s="75"/>
     </row>
     <row r="44" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="256"/>
-      <c r="B44" s="251"/>
+      <c r="A44" s="285"/>
+      <c r="B44" s="282"/>
       <c r="C44" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="252"/>
-      <c r="E44" s="253"/>
+      <c r="D44" s="283"/>
+      <c r="E44" s="284"/>
       <c r="F44" s="76"/>
       <c r="G44" s="77"/>
       <c r="H44" s="77"/>
       <c r="I44" s="78"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="235"/>
-      <c r="B45" s="236"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="237"/>
+      <c r="A45" s="237"/>
+      <c r="B45" s="238"/>
+      <c r="C45" s="238"/>
+      <c r="D45" s="238"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="238"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="238"/>
+      <c r="I45" s="239"/>
     </row>
     <row r="46" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="238"/>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="240"/>
-      <c r="H46" s="240"/>
-      <c r="I46" s="241"/>
+      <c r="A46" s="240"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="278"/>
+      <c r="D46" s="278"/>
+      <c r="E46" s="278"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="241"/>
+      <c r="I46" s="242"/>
     </row>
     <row r="47" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="276"/>
+      <c r="A47" s="235"/>
       <c r="B47" s="101">
         <v>0.2</v>
       </c>
@@ -79909,7 +79909,7 @@
       <c r="I47" s="141"/>
     </row>
     <row r="48" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="277"/>
+      <c r="A48" s="236"/>
       <c r="B48" s="72">
         <v>0.5</v>
       </c>
@@ -79929,6 +79929,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A45:I46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:I31"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -79944,25 +79963,6 @@
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="A45:I46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:I31"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="E39:E44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -79974,7 +79974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6DC293-6E24-46FC-B469-6DD03CF089D2}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
